--- a/results/AmBERT.xlsx
+++ b/results/AmBERT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krzys\Desktop\ASMscan\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CB01F8F-4337-44BF-9B19-71B774217430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3554BD5C-90C3-422F-8BE0-9DAB8D0E190C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="930" windowWidth="15420" windowHeight="11235" firstSheet="5" activeTab="5" xr2:uid="{3626653E-FCEA-473F-BD7C-CE3D73C5BFF0}"/>
+    <workbookView xWindow="3345" yWindow="210" windowWidth="21600" windowHeight="11385" firstSheet="4" activeTab="7" xr2:uid="{3626653E-FCEA-473F-BD7C-CE3D73C5BFF0}"/>
   </bookViews>
   <sheets>
     <sheet name="test-frag-fass_ntm|PB40" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="test-full-bass_other|NLReff" sheetId="6" r:id="rId4"/>
     <sheet name="test-full-bass_ntm|PB40" sheetId="7" r:id="rId5"/>
     <sheet name="test-full-fass_ctm|PB40" sheetId="8" r:id="rId6"/>
+    <sheet name="test-full-fass_ntm|PB40" sheetId="10" r:id="rId7"/>
+    <sheet name="test-full-fass_ntm|NLReff" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="24">
   <si>
     <t>Model</t>
   </si>
@@ -1613,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5025FF-9DF5-48F9-8518-19332A6611D2}">
   <dimension ref="A1:AL10"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N10"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2753,7 +2755,7 @@
         <v>143</v>
       </c>
       <c r="C3">
-        <f>K3+L3</f>
+        <f t="shared" ref="C3:C9" si="0">K3+L3</f>
         <v>2411</v>
       </c>
       <c r="D3" s="4">
@@ -2792,7 +2794,7 @@
         <v>143</v>
       </c>
       <c r="C4">
-        <f>K4+L4</f>
+        <f t="shared" si="0"/>
         <v>2411</v>
       </c>
       <c r="D4" s="4">
@@ -2831,7 +2833,7 @@
         <v>143</v>
       </c>
       <c r="C5">
-        <f>K5+L5</f>
+        <f t="shared" si="0"/>
         <v>2411</v>
       </c>
       <c r="D5" s="4">
@@ -2870,7 +2872,7 @@
         <v>143</v>
       </c>
       <c r="C6">
-        <f>K6+L6</f>
+        <f t="shared" si="0"/>
         <v>2411</v>
       </c>
       <c r="D6" s="4">
@@ -2909,7 +2911,7 @@
         <v>143</v>
       </c>
       <c r="C7">
-        <f>K7+L7</f>
+        <f t="shared" si="0"/>
         <v>2411</v>
       </c>
       <c r="D7" s="4">
@@ -2948,7 +2950,7 @@
         <v>143</v>
       </c>
       <c r="C8">
-        <f>K8+L8</f>
+        <f t="shared" si="0"/>
         <v>2411</v>
       </c>
       <c r="D8" s="4">
@@ -2987,7 +2989,7 @@
         <v>143</v>
       </c>
       <c r="C9" s="1">
-        <f>K9+L9</f>
+        <f t="shared" si="0"/>
         <v>2411</v>
       </c>
       <c r="D9" s="5">
@@ -2995,19 +2997,19 @@
         <v>0.96999999999999986</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" ref="E9:H9" si="0">AVERAGE(E3:E8)</f>
+        <f t="shared" ref="E9:H9" si="1">AVERAGE(E3:E8)</f>
         <v>0.8666666666666667</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.93</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.79833333333333334</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.52500000000000002</v>
       </c>
       <c r="I9" s="5">
@@ -3137,7 +3139,7 @@
         <v>44</v>
       </c>
       <c r="C3">
-        <f>K3+L3</f>
+        <f t="shared" ref="C3:C9" si="0">K3+L3</f>
         <v>2411</v>
       </c>
       <c r="D3" s="4">
@@ -3176,7 +3178,7 @@
         <v>44</v>
       </c>
       <c r="C4">
-        <f>K4+L4</f>
+        <f t="shared" si="0"/>
         <v>2411</v>
       </c>
       <c r="D4" s="4">
@@ -3215,7 +3217,7 @@
         <v>44</v>
       </c>
       <c r="C5">
-        <f>K5+L5</f>
+        <f t="shared" si="0"/>
         <v>2411</v>
       </c>
       <c r="D5" s="4">
@@ -3254,7 +3256,7 @@
         <v>44</v>
       </c>
       <c r="C6">
-        <f>K6+L6</f>
+        <f t="shared" si="0"/>
         <v>2411</v>
       </c>
       <c r="D6" s="4">
@@ -3293,7 +3295,7 @@
         <v>44</v>
       </c>
       <c r="C7">
-        <f>K7+L7</f>
+        <f t="shared" si="0"/>
         <v>2411</v>
       </c>
       <c r="D7" s="4">
@@ -3332,7 +3334,7 @@
         <v>44</v>
       </c>
       <c r="C8">
-        <f>K8+L8</f>
+        <f t="shared" si="0"/>
         <v>2411</v>
       </c>
       <c r="D8" s="4">
@@ -3371,7 +3373,7 @@
         <v>44</v>
       </c>
       <c r="C9" s="1">
-        <f>K9+L9</f>
+        <f t="shared" si="0"/>
         <v>2411</v>
       </c>
       <c r="D9" s="5">
@@ -3379,19 +3381,19 @@
         <v>0.92833333333333334</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" ref="E9:H9" si="0">AVERAGE(E3:E8)</f>
+        <f t="shared" ref="E9:H9" si="1">AVERAGE(E3:E8)</f>
         <v>0.42833333333333329</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.81833333333333347</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44333333333333336</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17499999999999996</v>
       </c>
       <c r="I9" s="5">
@@ -3460,7 +3462,7 @@
   <dimension ref="A2:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="N10" sqref="A2:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3899,7 +3901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08B2906-FEFA-4908-80E4-7F5E1C0FB01E}">
   <dimension ref="A2:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -4333,4 +4335,826 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37892A04-D91F-4001-BCCA-2241A421893F}">
+  <dimension ref="A2:N10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="12">
+        <v>181</v>
+      </c>
+      <c r="C3" s="12">
+        <f t="shared" ref="C3:C9" si="0">M3+N3</f>
+        <v>437236</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.48</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
+        <v>42</v>
+      </c>
+      <c r="L3" s="10">
+        <v>25</v>
+      </c>
+      <c r="M3" s="9">
+        <v>487</v>
+      </c>
+      <c r="N3" s="9">
+        <v>436749</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="12">
+        <v>181</v>
+      </c>
+      <c r="C4" s="12">
+        <f t="shared" si="0"/>
+        <v>437236</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.17</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.22</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="K4" s="10">
+        <v>50</v>
+      </c>
+      <c r="L4" s="10">
+        <v>17</v>
+      </c>
+      <c r="M4" s="9">
+        <v>752</v>
+      </c>
+      <c r="N4" s="9">
+        <v>436484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="12">
+        <v>181</v>
+      </c>
+      <c r="C5" s="12">
+        <f t="shared" si="0"/>
+        <v>437236</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.69</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.17</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10">
+        <v>54</v>
+      </c>
+      <c r="L5" s="10">
+        <v>13</v>
+      </c>
+      <c r="M5" s="9">
+        <v>855</v>
+      </c>
+      <c r="N5" s="9">
+        <v>436381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="12">
+        <v>181</v>
+      </c>
+      <c r="C6" s="12">
+        <f t="shared" si="0"/>
+        <v>437236</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.94</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="K6" s="10">
+        <v>46</v>
+      </c>
+      <c r="L6" s="10">
+        <v>21</v>
+      </c>
+      <c r="M6" s="9">
+        <v>762</v>
+      </c>
+      <c r="N6" s="9">
+        <v>436474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="12">
+        <v>181</v>
+      </c>
+      <c r="C7" s="12">
+        <f t="shared" si="0"/>
+        <v>437236</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.96</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.63</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <v>51</v>
+      </c>
+      <c r="L7" s="10">
+        <v>16</v>
+      </c>
+      <c r="M7" s="9">
+        <v>716</v>
+      </c>
+      <c r="N7" s="9">
+        <v>436520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="12">
+        <v>181</v>
+      </c>
+      <c r="C8" s="12">
+        <f t="shared" si="0"/>
+        <v>437236</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="K8" s="10">
+        <v>48</v>
+      </c>
+      <c r="L8" s="10">
+        <v>19</v>
+      </c>
+      <c r="M8" s="9">
+        <v>708</v>
+      </c>
+      <c r="N8" s="9">
+        <v>436528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="13">
+        <v>181</v>
+      </c>
+      <c r="C9" s="13">
+        <f t="shared" si="0"/>
+        <v>437236</v>
+      </c>
+      <c r="D9" s="5">
+        <f>AVERAGE(D3:D8)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" ref="E9:J9" si="1">AVERAGE(E3:E8)</f>
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
+        <v>0.96333333333333337</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="1"/>
+        <v>0.61333333333333329</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="1"/>
+        <v>0.13666666666666669</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="1"/>
+        <v>1.1666666666666667E-2</v>
+      </c>
+      <c r="K9" s="5">
+        <f>AVERAGE(K3:K8)</f>
+        <v>48.5</v>
+      </c>
+      <c r="L9" s="5">
+        <f>AVERAGE(L3:L8)</f>
+        <v>18.5</v>
+      </c>
+      <c r="M9" s="5">
+        <f>AVERAGE(M3:M8)</f>
+        <v>713.33333333333337</v>
+      </c>
+      <c r="N9" s="5">
+        <f>AVERAGE(N3:N8)</f>
+        <v>436522.66666666669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="13">
+        <v>181</v>
+      </c>
+      <c r="C10" s="13">
+        <f>C9</f>
+        <v>437236</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.72</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="K10" s="6">
+        <v>43</v>
+      </c>
+      <c r="L10" s="6">
+        <v>24</v>
+      </c>
+      <c r="M10" s="6">
+        <v>298</v>
+      </c>
+      <c r="N10" s="6">
+        <v>436938</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6492A50D-100B-4685-8A2C-DB20A726422F}">
+  <dimension ref="A2:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="12">
+        <v>181</v>
+      </c>
+      <c r="C3" s="12">
+        <f t="shared" ref="C3:C9" si="0">K3+L3</f>
+        <v>437236</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.94</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.37</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="I3" s="10">
+        <v>42</v>
+      </c>
+      <c r="J3" s="10">
+        <v>25</v>
+      </c>
+      <c r="K3" s="9">
+        <v>487</v>
+      </c>
+      <c r="L3" s="9">
+        <v>436749</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="12">
+        <v>181</v>
+      </c>
+      <c r="C4" s="12">
+        <f t="shared" si="0"/>
+        <v>437236</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.47</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.84</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="I4" s="10">
+        <v>50</v>
+      </c>
+      <c r="J4" s="10">
+        <v>17</v>
+      </c>
+      <c r="K4" s="9">
+        <v>752</v>
+      </c>
+      <c r="L4" s="9">
+        <v>436484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="12">
+        <v>181</v>
+      </c>
+      <c r="C5" s="12">
+        <f t="shared" si="0"/>
+        <v>437236</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.96</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.51</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.48</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="I5" s="10">
+        <v>54</v>
+      </c>
+      <c r="J5" s="10">
+        <v>13</v>
+      </c>
+      <c r="K5" s="9">
+        <v>855</v>
+      </c>
+      <c r="L5" s="9">
+        <v>436381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="12">
+        <v>181</v>
+      </c>
+      <c r="C6" s="12">
+        <f t="shared" si="0"/>
+        <v>437236</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.46</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.84</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.48</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="I6" s="10">
+        <v>46</v>
+      </c>
+      <c r="J6" s="10">
+        <v>21</v>
+      </c>
+      <c r="K6" s="9">
+        <v>762</v>
+      </c>
+      <c r="L6" s="9">
+        <v>436474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="12">
+        <v>181</v>
+      </c>
+      <c r="C7" s="12">
+        <f t="shared" si="0"/>
+        <v>437236</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.96</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="I7" s="10">
+        <v>51</v>
+      </c>
+      <c r="J7" s="10">
+        <v>16</v>
+      </c>
+      <c r="K7" s="9">
+        <v>716</v>
+      </c>
+      <c r="L7" s="9">
+        <v>436520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="12">
+        <v>181</v>
+      </c>
+      <c r="C8" s="12">
+        <f t="shared" si="0"/>
+        <v>437236</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.96</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.48</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.87</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.43</v>
+      </c>
+      <c r="H8" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I8" s="10">
+        <v>48</v>
+      </c>
+      <c r="J8" s="10">
+        <v>19</v>
+      </c>
+      <c r="K8" s="9">
+        <v>708</v>
+      </c>
+      <c r="L8" s="9">
+        <v>436528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="13">
+        <v>181</v>
+      </c>
+      <c r="C9" s="13">
+        <f t="shared" si="0"/>
+        <v>437236</v>
+      </c>
+      <c r="D9" s="5">
+        <f>AVERAGE(D3:D8)</f>
+        <v>0.95333333333333325</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" ref="E9:H9" si="1">AVERAGE(E3:E8)</f>
+        <v>0.45666666666666672</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="1"/>
+        <v>0.86833333333333329</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="1"/>
+        <v>8.1666666666666679E-2</v>
+      </c>
+      <c r="I9" s="5">
+        <f>AVERAGE(I3:I8)</f>
+        <v>48.5</v>
+      </c>
+      <c r="J9" s="5">
+        <f>AVERAGE(J3:J8)</f>
+        <v>18.5</v>
+      </c>
+      <c r="K9" s="5">
+        <f>AVERAGE(K3:K8)</f>
+        <v>713.33333333333337</v>
+      </c>
+      <c r="L9" s="5">
+        <f>AVERAGE(L3:L8)</f>
+        <v>436522.66666666669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="13">
+        <v>181</v>
+      </c>
+      <c r="C10" s="13">
+        <f>C9</f>
+        <v>437236</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.34</v>
+      </c>
+      <c r="I10" s="6">
+        <v>43</v>
+      </c>
+      <c r="J10" s="6">
+        <v>24</v>
+      </c>
+      <c r="K10" s="6">
+        <v>298</v>
+      </c>
+      <c r="L10" s="6">
+        <v>436938</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>